--- a/js/testMassDelete.xlsx
+++ b/js/testMassDelete.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
-    <t>ilian-radenkov.aleksandrov@hp.com</t>
-  </si>
-  <si>
-    <t>dimo-naydenov.lenkov@hp.com</t>
-  </si>
-  <si>
     <t>markus.kraus@hp.com</t>
   </si>
   <si>
@@ -218,16 +212,30 @@
   </si>
   <si>
     <t>kristina-valentinova.filipova@hp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ilian-radenkov.aleksandrov@hp.com</t>
+  </si>
+  <si>
+    <t>dimo-naydenov.lenkov@hp.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,13 +258,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,7 +573,7 @@
   <dimension ref="A1:A70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,358 +583,358 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="mailto:dirk.achterberg@hp.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="mailto:kiril.aleksandrov@hp.com"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3" display="mailto:valeri.angelov@hp.com"/>
     <hyperlink ref="A4" r:id="rId4" display="mailto:steffen.baitinger@hp.com"/>
   </hyperlinks>
